--- a/ope.ed.gov/2011/arrests-public-property-virginia-colleges-and-universities-crime-2011.xlsx
+++ b/ope.ed.gov/2011/arrests-public-property-virginia-colleges-and-universities-crime-2011.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet sheetId="1" name="Arrests_Public_Property" state="visible" r:id="rId3"/>
+    <sheet sheetId="1" name="arrests-public-property-virgini" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,16 +13,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
-    <t>Arrests - Public Property</t>
-  </si>
-  <si>
-    <t>Survey year</t>
-  </si>
-  <si>
-    <t>Unitid</t>
-  </si>
-  <si>
-    <t>Institution name</t>
+    <t>Survey Year</t>
+  </si>
+  <si>
+    <t>UnitID</t>
+  </si>
+  <si>
+    <t>Institution Name</t>
   </si>
   <si>
     <t>Campus ID</t>
@@ -34,13 +31,13 @@
     <t>Institution Size</t>
   </si>
   <si>
-    <t>Illegal weapons possession</t>
-  </si>
-  <si>
-    <t>Drug law violations</t>
-  </si>
-  <si>
-    <t>Liquor law violations</t>
+    <t>Illegal Weapons Possession</t>
+  </si>
+  <si>
+    <t>Drug Law Violations</t>
+  </si>
+  <si>
+    <t>Liquor Law Violations</t>
   </si>
   <si>
     <t>Advanced Technology Institute</t>
@@ -1651,34 +1648,58 @@
       <c t="s" s="1" r="A1">
         <v>0</v>
       </c>
+      <c t="s" s="1" r="B1">
+        <v>1</v>
+      </c>
+      <c t="s" s="1" r="C1">
+        <v>2</v>
+      </c>
+      <c t="s" s="1" r="D1">
+        <v>3</v>
+      </c>
+      <c t="s" s="1" r="E1">
+        <v>4</v>
+      </c>
+      <c t="s" s="1" r="F1">
+        <v>5</v>
+      </c>
+      <c t="s" s="1" r="G1">
+        <v>6</v>
+      </c>
+      <c t="s" s="1" r="H1">
+        <v>7</v>
+      </c>
+      <c t="s" s="1" r="I1">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
-      <c t="s" s="1" r="A2">
-        <v>1</v>
-      </c>
-      <c t="s" s="1" r="B2">
-        <v>2</v>
+      <c s="1" r="A2">
+        <v>2011.0</v>
+      </c>
+      <c s="1" r="B2">
+        <v>231411.0</v>
       </c>
       <c t="s" s="1" r="C2">
-        <v>3</v>
-      </c>
-      <c t="s" s="1" r="D2">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c s="1" r="D2">
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E2">
-        <v>5</v>
-      </c>
-      <c t="s" s="1" r="F2">
-        <v>6</v>
-      </c>
-      <c t="s" s="1" r="G2">
-        <v>7</v>
-      </c>
-      <c t="s" s="1" r="H2">
-        <v>8</v>
-      </c>
-      <c t="s" s="1" r="I2">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c s="1" r="F2">
+        <v>841.0</v>
+      </c>
+      <c s="1" r="G2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="H2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="I2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -1689,13 +1710,13 @@
         <v>231411.0</v>
       </c>
       <c t="s" s="1" r="C3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c s="1" r="D3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c s="1" r="F3">
         <v>841.0</v>
@@ -1715,19 +1736,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B4">
-        <v>231411.0</v>
+        <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c s="1" r="D4">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c s="1" r="F4">
-        <v>841.0</v>
+        <v>3640.0</v>
       </c>
       <c s="1" r="G4">
         <v>0.0</v>
@@ -1747,13 +1768,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c s="1" r="D5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c s="1" r="F5">
         <v>3640.0</v>
@@ -1776,13 +1797,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c s="1" r="D6">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c s="1" r="F6">
         <v>3640.0</v>
@@ -1805,13 +1826,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c s="1" r="D7">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c s="1" r="F7">
         <v>3640.0</v>
@@ -1834,13 +1855,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c s="1" r="D8">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c s="1" r="F8">
         <v>3640.0</v>
@@ -1863,13 +1884,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c s="1" r="D9">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E9">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c s="1" r="F9">
         <v>3640.0</v>
@@ -1892,13 +1913,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C10">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c s="1" r="D10">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E10">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c s="1" r="F10">
         <v>3640.0</v>
@@ -1921,13 +1942,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c s="1" r="D11">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c s="1" r="F11">
         <v>3640.0</v>
@@ -1950,13 +1971,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C12">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c s="1" r="D12">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E12">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c s="1" r="F12">
         <v>3640.0</v>
@@ -1976,19 +1997,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B13">
-        <v>232797.0</v>
+        <v>432348.0</v>
       </c>
       <c t="s" s="1" r="C13">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c s="1" r="D13">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E13">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c s="1" r="F13">
-        <v>3640.0</v>
+        <v>332.0</v>
       </c>
       <c s="1" r="G13">
         <v>0.0</v>
@@ -2005,19 +2026,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B14">
-        <v>432348.0</v>
+        <v>419457.0</v>
       </c>
       <c t="s" s="1" r="C14">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c s="1" r="D14">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E14">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c s="1" r="F14">
-        <v>332.0</v>
+        <v>1142.0</v>
       </c>
       <c s="1" r="G14">
         <v>0.0</v>
@@ -2026,7 +2047,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I14">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="15">
@@ -2034,19 +2055,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B15">
-        <v>419457.0</v>
+        <v>231420.0</v>
       </c>
       <c t="s" s="1" r="C15">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c s="1" r="D15">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E15">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c s="1" r="F15">
-        <v>1142.0</v>
+        <v>901.0</v>
       </c>
       <c s="1" r="G15">
         <v>0.0</v>
@@ -2055,7 +2076,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I15">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="16">
@@ -2063,19 +2084,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B16">
-        <v>231420.0</v>
+        <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C16">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c s="1" r="D16">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E16">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c s="1" r="F16">
-        <v>901.0</v>
+        <v>1667.0</v>
       </c>
       <c s="1" r="G16">
         <v>0.0</v>
@@ -2095,13 +2116,13 @@
         <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C17">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c s="1" r="D17">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E17">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c s="1" r="F17">
         <v>1667.0</v>
@@ -2124,13 +2145,13 @@
         <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C18">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c s="1" r="D18">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E18">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c s="1" r="F18">
         <v>1667.0</v>
@@ -2153,13 +2174,13 @@
         <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C19">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c s="1" r="D19">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E19">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c s="1" r="F19">
         <v>1667.0</v>
@@ -2179,19 +2200,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B20">
-        <v>449931.0</v>
+        <v>448257.0</v>
       </c>
       <c t="s" s="1" r="C20">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c s="1" r="D20">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E20">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c s="1" r="F20">
-        <v>1667.0</v>
+        <v>18.0</v>
       </c>
       <c s="1" r="G20">
         <v>0.0</v>
@@ -2208,28 +2229,28 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B21">
-        <v>448257.0</v>
+        <v>427973.0</v>
       </c>
       <c t="s" s="1" r="C21">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c s="1" r="D21">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E21">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c s="1" r="F21">
-        <v>18.0</v>
+        <v>391.0</v>
       </c>
       <c s="1" r="G21">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="H21">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c s="1" r="I21">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="22">
@@ -2237,28 +2258,28 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B22">
-        <v>427973.0</v>
+        <v>445762.0</v>
       </c>
       <c t="s" s="1" r="C22">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c s="1" r="D22">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E22">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c s="1" r="F22">
-        <v>391.0</v>
+        <v>219.0</v>
       </c>
       <c s="1" r="G22">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H22">
-        <v>24.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I22">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="23">
@@ -2266,19 +2287,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B23">
-        <v>445762.0</v>
+        <v>366793.0</v>
       </c>
       <c t="s" s="1" r="C23">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c s="1" r="D23">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E23">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c s="1" r="F23">
-        <v>219.0</v>
+        <v>110.0</v>
       </c>
       <c s="1" r="G23">
         <v>0.0</v>
@@ -2295,25 +2316,25 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B24">
-        <v>366793.0</v>
+        <v>231280.0</v>
       </c>
       <c t="s" s="1" r="C24">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c s="1" r="D24">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E24">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c s="1" r="F24">
-        <v>110.0</v>
+        <v>52.0</v>
       </c>
       <c s="1" r="G24">
         <v>0.0</v>
       </c>
       <c s="1" r="H24">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="I24">
         <v>0.0</v>
@@ -2324,25 +2345,25 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B25">
-        <v>231280.0</v>
+        <v>458113.0</v>
       </c>
       <c t="s" s="1" r="C25">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c s="1" r="D25">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E25">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c s="1" r="F25">
-        <v>52.0</v>
+        <v>87.0</v>
       </c>
       <c s="1" r="G25">
         <v>0.0</v>
       </c>
       <c s="1" r="H25">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I25">
         <v>0.0</v>
@@ -2353,19 +2374,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B26">
-        <v>458113.0</v>
+        <v>231536.0</v>
       </c>
       <c t="s" s="1" r="C26">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c s="1" r="D26">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E26">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c s="1" r="F26">
-        <v>87.0</v>
+        <v>4836.0</v>
       </c>
       <c s="1" r="G26">
         <v>0.0</v>
@@ -2382,19 +2403,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B27">
-        <v>231536.0</v>
+        <v>231554.0</v>
       </c>
       <c t="s" s="1" r="C27">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c s="1" r="D27">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E27">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c s="1" r="F27">
-        <v>4836.0</v>
+        <v>763.0</v>
       </c>
       <c s="1" r="G27">
         <v>0.0</v>
@@ -2411,19 +2432,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B28">
-        <v>231554.0</v>
+        <v>233356.0</v>
       </c>
       <c t="s" s="1" r="C28">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c s="1" r="D28">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E28">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c s="1" r="F28">
-        <v>763.0</v>
+        <v>245.0</v>
       </c>
       <c s="1" r="G28">
         <v>0.0</v>
@@ -2440,19 +2461,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B29">
-        <v>233356.0</v>
+        <v>233480.0</v>
       </c>
       <c t="s" s="1" r="C29">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c s="1" r="D29">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E29">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c s="1" r="F29">
-        <v>245.0</v>
+        <v>31.0</v>
       </c>
       <c s="1" r="G29">
         <v>0.0</v>
@@ -2469,19 +2490,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B30">
-        <v>233480.0</v>
+        <v>231581.0</v>
       </c>
       <c t="s" s="1" r="C30">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c s="1" r="D30">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E30">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c s="1" r="F30">
-        <v>31.0</v>
+        <v>1648.0</v>
       </c>
       <c s="1" r="G30">
         <v>0.0</v>
@@ -2498,19 +2519,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B31">
-        <v>231581.0</v>
+        <v>459107.0</v>
       </c>
       <c t="s" s="1" r="C31">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c s="1" r="D31">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E31">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c s="1" r="F31">
-        <v>1648.0</v>
+        <v>400.0</v>
       </c>
       <c s="1" r="G31">
         <v>0.0</v>
@@ -2527,19 +2548,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B32">
-        <v>459107.0</v>
+        <v>231828.0</v>
       </c>
       <c t="s" s="1" r="C32">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c s="1" r="D32">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E32">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c s="1" r="F32">
-        <v>400.0</v>
+        <v>1006.0</v>
       </c>
       <c s="1" r="G32">
         <v>0.0</v>
@@ -2556,19 +2577,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B33">
-        <v>231828.0</v>
+        <v>231785.0</v>
       </c>
       <c t="s" s="1" r="C33">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c s="1" r="D33">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E33">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c s="1" r="F33">
-        <v>1006.0</v>
+        <v>863.0</v>
       </c>
       <c s="1" r="G33">
         <v>0.0</v>
@@ -2585,19 +2606,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B34">
-        <v>231785.0</v>
+        <v>441858.0</v>
       </c>
       <c t="s" s="1" r="C34">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c s="1" r="D34">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E34">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c s="1" r="F34">
-        <v>863.0</v>
+        <v>170.0</v>
       </c>
       <c s="1" r="G34">
         <v>0.0</v>
@@ -2614,28 +2635,28 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B35">
-        <v>441858.0</v>
+        <v>430306.0</v>
       </c>
       <c t="s" s="1" r="C35">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c s="1" r="D35">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E35">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c s="1" r="F35">
-        <v>170.0</v>
+        <v>55.0</v>
       </c>
       <c s="1" r="G35">
         <v>0.0</v>
       </c>
       <c s="1" r="H35">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="I35">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="36">
@@ -2643,28 +2664,28 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B36">
-        <v>430306.0</v>
+        <v>231688.0</v>
       </c>
       <c t="s" s="1" r="C36">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c s="1" r="D36">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E36">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c s="1" r="F36">
-        <v>55.0</v>
+        <v>56.0</v>
       </c>
       <c s="1" r="G36">
         <v>0.0</v>
       </c>
       <c s="1" r="H36">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I36">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="37">
@@ -2672,19 +2693,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B37">
-        <v>231688.0</v>
+        <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C37">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c s="1" r="D37">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E37">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c s="1" r="F37">
-        <v>56.0</v>
+        <v>5461.0</v>
       </c>
       <c s="1" r="G37">
         <v>0.0</v>
@@ -2704,13 +2725,13 @@
         <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C38">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c s="1" r="D38">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E38">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c s="1" r="F38">
         <v>5461.0</v>
@@ -2733,13 +2754,13 @@
         <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C39">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c s="1" r="D39">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E39">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c s="1" r="F39">
         <v>5461.0</v>
@@ -2762,13 +2783,13 @@
         <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C40">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c s="1" r="D40">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E40">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c s="1" r="F40">
         <v>5461.0</v>
@@ -2791,13 +2812,13 @@
         <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C41">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c s="1" r="D41">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E41">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c s="1" r="F41">
         <v>5461.0</v>
@@ -2817,19 +2838,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B42">
-        <v>231697.0</v>
+        <v>451592.0</v>
       </c>
       <c t="s" s="1" r="C42">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c s="1" r="D42">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E42">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c s="1" r="F42">
-        <v>5461.0</v>
+        <v>21.0</v>
       </c>
       <c s="1" r="G42">
         <v>0.0</v>
@@ -2846,19 +2867,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B43">
-        <v>451592.0</v>
+        <v>420024.0</v>
       </c>
       <c t="s" s="1" r="C43">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c s="1" r="D43">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E43">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c s="1" r="F43">
-        <v>21.0</v>
+        <v>213.0</v>
       </c>
       <c s="1" r="G43">
         <v>0.0</v>
@@ -2875,25 +2896,25 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B44">
-        <v>420024.0</v>
+        <v>377449.0</v>
       </c>
       <c t="s" s="1" r="C44">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c s="1" r="D44">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E44">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c s="1" r="F44">
-        <v>213.0</v>
+        <v>313.0</v>
       </c>
       <c s="1" r="G44">
         <v>0.0</v>
       </c>
       <c s="1" r="H44">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="I44">
         <v>0.0</v>
@@ -2904,25 +2925,25 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B45">
-        <v>377449.0</v>
+        <v>377458.0</v>
       </c>
       <c t="s" s="1" r="C45">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c s="1" r="D45">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E45">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c s="1" r="F45">
-        <v>313.0</v>
+        <v>245.0</v>
       </c>
       <c s="1" r="G45">
         <v>0.0</v>
       </c>
       <c s="1" r="H45">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="I45">
         <v>0.0</v>
@@ -2933,25 +2954,25 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B46">
-        <v>377458.0</v>
+        <v>427982.0</v>
       </c>
       <c t="s" s="1" r="C46">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c s="1" r="D46">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E46">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c s="1" r="F46">
-        <v>245.0</v>
+        <v>250.0</v>
       </c>
       <c s="1" r="G46">
         <v>0.0</v>
       </c>
       <c s="1" r="H46">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I46">
         <v>0.0</v>
@@ -2962,19 +2983,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B47">
-        <v>427982.0</v>
+        <v>440378.0</v>
       </c>
       <c t="s" s="1" r="C47">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c s="1" r="D47">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E47">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c s="1" r="F47">
-        <v>250.0</v>
+        <v>131.0</v>
       </c>
       <c s="1" r="G47">
         <v>0.0</v>
@@ -2983,7 +3004,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I47">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="48">
@@ -2991,25 +3012,25 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B48">
-        <v>440378.0</v>
+        <v>232016.0</v>
       </c>
       <c t="s" s="1" r="C48">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c s="1" r="D48">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E48">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c s="1" r="F48">
-        <v>131.0</v>
+        <v>1605.0</v>
       </c>
       <c s="1" r="G48">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="H48">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="I48">
         <v>3.0</v>
@@ -3020,28 +3041,28 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B49">
-        <v>232016.0</v>
+        <v>427894.0</v>
       </c>
       <c t="s" s="1" r="C49">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c s="1" r="D49">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E49">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c s="1" r="F49">
-        <v>1605.0</v>
+        <v>174.0</v>
       </c>
       <c s="1" r="G49">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H49">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I49">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="50">
@@ -3049,19 +3070,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B50">
-        <v>427894.0</v>
+        <v>460871.0</v>
       </c>
       <c t="s" s="1" r="C50">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c s="1" r="D50">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E50">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c s="1" r="F50">
-        <v>174.0</v>
+        <v>219.0</v>
       </c>
       <c s="1" r="G50">
         <v>0.0</v>
@@ -3078,28 +3099,28 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B51">
-        <v>460871.0</v>
+        <v>231712.0</v>
       </c>
       <c t="s" s="1" r="C51">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c s="1" r="D51">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E51">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c s="1" r="F51">
-        <v>219.0</v>
+        <v>4990.0</v>
       </c>
       <c s="1" r="G51">
         <v>0.0</v>
       </c>
       <c s="1" r="H51">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="I51">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="52">
@@ -3107,28 +3128,28 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B52">
-        <v>231712.0</v>
+        <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C52">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c s="1" r="D52">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E52">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c s="1" r="F52">
-        <v>4990.0</v>
+        <v>8200.0</v>
       </c>
       <c s="1" r="G52">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="H52">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="I52">
-        <v>1.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="53">
@@ -3139,25 +3160,25 @@
         <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C53">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c s="1" r="D53">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E53">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c s="1" r="F53">
         <v>8200.0</v>
       </c>
       <c s="1" r="G53">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H53">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I53">
-        <v>17.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="54">
@@ -3168,13 +3189,13 @@
         <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C54">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c s="1" r="D54">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E54">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c s="1" r="F54">
         <v>8200.0</v>
@@ -3197,13 +3218,13 @@
         <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C55">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c s="1" r="D55">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E55">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c s="1" r="F55">
         <v>8200.0</v>
@@ -3223,19 +3244,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B56">
-        <v>231624.0</v>
+        <v>455983.0</v>
       </c>
       <c t="s" s="1" r="C56">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c s="1" r="D56">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E56">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c s="1" r="F56">
-        <v>8200.0</v>
+        <v>381.0</v>
       </c>
       <c s="1" r="G56">
         <v>0.0</v>
@@ -3252,19 +3273,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B57">
-        <v>455983.0</v>
+        <v>446206.0</v>
       </c>
       <c t="s" s="1" r="C57">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c s="1" r="D57">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E57">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c s="1" r="F57">
-        <v>381.0</v>
+        <v>9.0</v>
       </c>
       <c s="1" r="G57">
         <v>0.0</v>
@@ -3281,19 +3302,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B58">
-        <v>446206.0</v>
+        <v>231873.0</v>
       </c>
       <c t="s" s="1" r="C58">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c s="1" r="D58">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E58">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c s="1" r="F58">
-        <v>9.0</v>
+        <v>1538.0</v>
       </c>
       <c s="1" r="G58">
         <v>0.0</v>
@@ -3310,25 +3331,25 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B59">
-        <v>231873.0</v>
+        <v>231882.0</v>
       </c>
       <c t="s" s="1" r="C59">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c s="1" r="D59">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E59">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c s="1" r="F59">
-        <v>1538.0</v>
+        <v>4390.0</v>
       </c>
       <c s="1" r="G59">
         <v>0.0</v>
       </c>
       <c s="1" r="H59">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="I59">
         <v>0.0</v>
@@ -3339,25 +3360,25 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B60">
-        <v>231882.0</v>
+        <v>232724.0</v>
       </c>
       <c t="s" s="1" r="C60">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c s="1" r="D60">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E60">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c s="1" r="F60">
-        <v>4390.0</v>
+        <v>101.0</v>
       </c>
       <c s="1" r="G60">
         <v>0.0</v>
       </c>
       <c s="1" r="H60">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I60">
         <v>0.0</v>
@@ -3368,19 +3389,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B61">
-        <v>232724.0</v>
+        <v>440536.0</v>
       </c>
       <c t="s" s="1" r="C61">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c s="1" r="D61">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E61">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c s="1" r="F61">
-        <v>101.0</v>
+        <v>1185.0</v>
       </c>
       <c s="1" r="G61">
         <v>0.0</v>
@@ -3400,13 +3421,13 @@
         <v>440536.0</v>
       </c>
       <c t="s" s="1" r="C62">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c s="1" r="D62">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E62">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c s="1" r="F62">
         <v>1185.0</v>
@@ -3429,13 +3450,13 @@
         <v>440536.0</v>
       </c>
       <c t="s" s="1" r="C63">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c s="1" r="D63">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E63">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c s="1" r="F63">
         <v>1185.0</v>
@@ -3455,19 +3476,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B64">
-        <v>440536.0</v>
+        <v>451617.0</v>
       </c>
       <c t="s" s="1" r="C64">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c s="1" r="D64">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E64">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c s="1" r="F64">
-        <v>1185.0</v>
+        <v>25.0</v>
       </c>
       <c s="1" r="G64">
         <v>0.0</v>
@@ -3484,19 +3505,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B65">
-        <v>451617.0</v>
+        <v>232043.0</v>
       </c>
       <c t="s" s="1" r="C65">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c s="1" r="D65">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E65">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c s="1" r="F65">
-        <v>25.0</v>
+        <v>1521.0</v>
       </c>
       <c s="1" r="G65">
         <v>0.0</v>
@@ -3513,19 +3534,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B66">
-        <v>232043.0</v>
+        <v>232052.0</v>
       </c>
       <c t="s" s="1" r="C66">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c s="1" r="D66">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E66">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c s="1" r="F66">
-        <v>1521.0</v>
+        <v>1022.0</v>
       </c>
       <c s="1" r="G66">
         <v>0.0</v>
@@ -3542,19 +3563,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B67">
-        <v>232052.0</v>
+        <v>231970.0</v>
       </c>
       <c t="s" s="1" r="C67">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c s="1" r="D67">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E67">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c s="1" r="F67">
-        <v>1022.0</v>
+        <v>1008.0</v>
       </c>
       <c s="1" r="G67">
         <v>0.0</v>
@@ -3571,25 +3592,25 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B68">
-        <v>231970.0</v>
+        <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C68">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c s="1" r="D68">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E68">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c s="1" r="F68">
-        <v>1008.0</v>
+        <v>10762.0</v>
       </c>
       <c s="1" r="G68">
         <v>0.0</v>
       </c>
       <c s="1" r="H68">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="I68">
         <v>0.0</v>
@@ -3603,13 +3624,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C69">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c s="1" r="D69">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E69">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c s="1" r="F69">
         <v>10762.0</v>
@@ -3618,7 +3639,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="H69">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I69">
         <v>0.0</v>
@@ -3632,13 +3653,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C70">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c s="1" r="D70">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E70">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c s="1" r="F70">
         <v>10762.0</v>
@@ -3661,13 +3682,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C71">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c s="1" r="D71">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E71">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c s="1" r="F71">
         <v>10762.0</v>
@@ -3690,13 +3711,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C72">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c s="1" r="D72">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E72">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c s="1" r="F72">
         <v>10762.0</v>
@@ -3719,13 +3740,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C73">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c s="1" r="D73">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E73">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c s="1" r="F73">
         <v>10762.0</v>
@@ -3748,13 +3769,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C74">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c s="1" r="D74">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E74">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c s="1" r="F74">
         <v>10762.0</v>
@@ -3777,13 +3798,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C75">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c s="1" r="D75">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E75">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c s="1" r="F75">
         <v>10762.0</v>
@@ -3806,13 +3827,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C76">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c s="1" r="D76">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c t="s" s="1" r="E76">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c s="1" r="F76">
         <v>10762.0</v>
@@ -3835,13 +3856,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C77">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c s="1" r="D77">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c t="s" s="1" r="E77">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c s="1" r="F77">
         <v>10762.0</v>
@@ -3864,13 +3885,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C78">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c s="1" r="D78">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c t="s" s="1" r="E78">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c s="1" r="F78">
         <v>10762.0</v>
@@ -3893,13 +3914,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C79">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c s="1" r="D79">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c t="s" s="1" r="E79">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c s="1" r="F79">
         <v>10762.0</v>
@@ -3908,7 +3929,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="H79">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="I79">
         <v>0.0</v>
@@ -3922,13 +3943,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C80">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c s="1" r="D80">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c t="s" s="1" r="E80">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c s="1" r="F80">
         <v>10762.0</v>
@@ -3937,7 +3958,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="H80">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I80">
         <v>0.0</v>
@@ -3951,19 +3972,19 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C81">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c s="1" r="D81">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c t="s" s="1" r="E81">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c s="1" r="F81">
         <v>10762.0</v>
       </c>
       <c s="1" r="G81">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="H81">
         <v>0.0</v>
@@ -3980,19 +4001,19 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C82">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c s="1" r="D82">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c t="s" s="1" r="E82">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c s="1" r="F82">
         <v>10762.0</v>
       </c>
       <c s="1" r="G82">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H82">
         <v>0.0</v>
@@ -4006,19 +4027,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B83">
-        <v>248934.0</v>
+        <v>442806.0</v>
       </c>
       <c t="s" s="1" r="C83">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c s="1" r="D83">
-        <v>16.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E83">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c s="1" r="F83">
-        <v>10762.0</v>
+        <v>964.0</v>
       </c>
       <c s="1" r="G83">
         <v>0.0</v>
@@ -4035,19 +4056,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B84">
-        <v>442806.0</v>
+        <v>232025.0</v>
       </c>
       <c t="s" s="1" r="C84">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c s="1" r="D84">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E84">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c s="1" r="F84">
-        <v>964.0</v>
+        <v>982.0</v>
       </c>
       <c s="1" r="G84">
         <v>0.0</v>
@@ -4064,19 +4085,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B85">
-        <v>232025.0</v>
+        <v>444282.0</v>
       </c>
       <c t="s" s="1" r="C85">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c s="1" r="D85">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E85">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c s="1" r="F85">
-        <v>982.0</v>
+        <v>125.0</v>
       </c>
       <c s="1" r="G85">
         <v>0.0</v>
@@ -4093,19 +4114,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B86">
-        <v>444282.0</v>
+        <v>450599.0</v>
       </c>
       <c t="s" s="1" r="C86">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c s="1" r="D86">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E86">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c s="1" r="F86">
-        <v>125.0</v>
+        <v>162.0</v>
       </c>
       <c s="1" r="G86">
         <v>0.0</v>
@@ -4122,19 +4143,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B87">
-        <v>450599.0</v>
+        <v>442310.0</v>
       </c>
       <c t="s" s="1" r="C87">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c s="1" r="D87">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E87">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c s="1" r="F87">
-        <v>162.0</v>
+        <v>442.0</v>
       </c>
       <c s="1" r="G87">
         <v>0.0</v>
@@ -4151,19 +4172,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B88">
-        <v>442310.0</v>
+        <v>438647.0</v>
       </c>
       <c t="s" s="1" r="C88">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c s="1" r="D88">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E88">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="1" r="F88">
-        <v>442.0</v>
+        <v>772.0</v>
       </c>
       <c s="1" r="G88">
         <v>0.0</v>
@@ -4180,19 +4201,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B89">
-        <v>438647.0</v>
+        <v>445470.0</v>
       </c>
       <c t="s" s="1" r="C89">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c s="1" r="D89">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E89">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c s="1" r="F89">
-        <v>772.0</v>
+        <v>423.0</v>
       </c>
       <c s="1" r="G89">
         <v>0.0</v>
@@ -4209,19 +4230,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B90">
-        <v>445470.0</v>
+        <v>232502.0</v>
       </c>
       <c t="s" s="1" r="C90">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c s="1" r="D90">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E90">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c s="1" r="F90">
-        <v>423.0</v>
+        <v>420.0</v>
       </c>
       <c s="1" r="G90">
         <v>0.0</v>
@@ -4238,25 +4259,25 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B91">
-        <v>232502.0</v>
+        <v>232089.0</v>
       </c>
       <c t="s" s="1" r="C91">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c s="1" r="D91">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E91">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c s="1" r="F91">
-        <v>420.0</v>
+        <v>1512.0</v>
       </c>
       <c s="1" r="G91">
         <v>0.0</v>
       </c>
       <c s="1" r="H91">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="I91">
         <v>0.0</v>
@@ -4267,25 +4288,25 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B92">
-        <v>232089.0</v>
+        <v>233329.0</v>
       </c>
       <c t="s" s="1" r="C92">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c s="1" r="D92">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E92">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c s="1" r="F92">
-        <v>1512.0</v>
+        <v>442.0</v>
       </c>
       <c s="1" r="G92">
         <v>0.0</v>
       </c>
       <c s="1" r="H92">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I92">
         <v>0.0</v>
@@ -4296,25 +4317,25 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B93">
-        <v>233329.0</v>
+        <v>382957.0</v>
       </c>
       <c t="s" s="1" r="C93">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c s="1" r="D93">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E93">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c s="1" r="F93">
-        <v>442.0</v>
+        <v>511.0</v>
       </c>
       <c s="1" r="G93">
         <v>0.0</v>
       </c>
       <c s="1" r="H93">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="I93">
         <v>0.0</v>
@@ -4325,28 +4346,28 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B94">
-        <v>382957.0</v>
+        <v>232186.0</v>
       </c>
       <c t="s" s="1" r="C94">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c s="1" r="D94">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E94">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c s="1" r="F94">
-        <v>511.0</v>
+        <v>33320.0</v>
       </c>
       <c s="1" r="G94">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="H94">
-        <v>1.0</v>
+        <v>120.0</v>
       </c>
       <c s="1" r="I94">
-        <v>0.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="95">
@@ -4354,28 +4375,28 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B95">
-        <v>232186.0</v>
+        <v>232195.0</v>
       </c>
       <c t="s" s="1" r="C95">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="1" r="D95">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E95">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c s="1" r="F95">
-        <v>33320.0</v>
+        <v>7779.0</v>
       </c>
       <c s="1" r="G95">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H95">
-        <v>120.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I95">
-        <v>63.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="96">
@@ -4386,13 +4407,13 @@
         <v>232195.0</v>
       </c>
       <c t="s" s="1" r="C96">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c s="1" r="D96">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E96">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c s="1" r="F96">
         <v>7779.0</v>
@@ -4415,13 +4436,13 @@
         <v>232195.0</v>
       </c>
       <c t="s" s="1" r="C97">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c s="1" r="D97">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E97">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c s="1" r="F97">
         <v>7779.0</v>
@@ -4444,13 +4465,13 @@
         <v>232195.0</v>
       </c>
       <c t="s" s="1" r="C98">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c s="1" r="D98">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E98">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c s="1" r="F98">
         <v>7779.0</v>
@@ -4470,19 +4491,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B99">
-        <v>232195.0</v>
+        <v>455390.0</v>
       </c>
       <c t="s" s="1" r="C99">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c s="1" r="D99">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E99">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c s="1" r="F99">
-        <v>7779.0</v>
+        <v>223.0</v>
       </c>
       <c s="1" r="G99">
         <v>0.0</v>
@@ -4499,19 +4520,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B100">
-        <v>455390.0</v>
+        <v>406495.0</v>
       </c>
       <c t="s" s="1" r="C100">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c s="1" r="D100">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E100">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c s="1" r="F100">
-        <v>223.0</v>
+        <v>254.0</v>
       </c>
       <c s="1" r="G100">
         <v>0.0</v>
@@ -4528,28 +4549,28 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B101">
-        <v>406495.0</v>
+        <v>232256.0</v>
       </c>
       <c t="s" s="1" r="C101">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c s="1" r="D101">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E101">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c s="1" r="F101">
-        <v>254.0</v>
+        <v>1057.0</v>
       </c>
       <c s="1" r="G101">
         <v>0.0</v>
       </c>
       <c s="1" r="H101">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="I101">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="102">
@@ -4557,28 +4578,28 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B102">
-        <v>232256.0</v>
+        <v>232265.0</v>
       </c>
       <c t="s" s="1" r="C102">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c s="1" r="D102">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E102">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c s="1" r="F102">
-        <v>1057.0</v>
+        <v>5221.0</v>
       </c>
       <c s="1" r="G102">
         <v>0.0</v>
       </c>
       <c s="1" r="H102">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="I102">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="103">
@@ -4589,13 +4610,13 @@
         <v>232265.0</v>
       </c>
       <c t="s" s="1" r="C103">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c s="1" r="D103">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E103">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c s="1" r="F103">
         <v>5221.0</v>
@@ -4604,10 +4625,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="H103">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I103">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="104">
@@ -4615,19 +4636,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B104">
-        <v>232265.0</v>
+        <v>431266.0</v>
       </c>
       <c t="s" s="1" r="C104">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c s="1" r="D104">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E104">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c s="1" r="F104">
-        <v>5221.0</v>
+        <v>63.0</v>
       </c>
       <c s="1" r="G104">
         <v>0.0</v>
@@ -4644,19 +4665,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B105">
-        <v>431266.0</v>
+        <v>232308.0</v>
       </c>
       <c t="s" s="1" r="C105">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c s="1" r="D105">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E105">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c s="1" r="F105">
-        <v>63.0</v>
+        <v>953.0</v>
       </c>
       <c s="1" r="G105">
         <v>0.0</v>
@@ -4673,19 +4694,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B106">
-        <v>232308.0</v>
+        <v>445869.0</v>
       </c>
       <c t="s" s="1" r="C106">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c s="1" r="D106">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E106">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c s="1" r="F106">
-        <v>953.0</v>
+        <v>84.0</v>
       </c>
       <c s="1" r="G106">
         <v>0.0</v>
@@ -4702,19 +4723,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B107">
-        <v>445869.0</v>
+        <v>458122.0</v>
       </c>
       <c t="s" s="1" r="C107">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c s="1" r="D107">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E107">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c s="1" r="F107">
-        <v>84.0</v>
+        <v>37.0</v>
       </c>
       <c s="1" r="G107">
         <v>0.0</v>
@@ -4731,19 +4752,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B108">
-        <v>458122.0</v>
+        <v>441964.0</v>
       </c>
       <c t="s" s="1" r="C108">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c s="1" r="D108">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E108">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c s="1" r="F108">
-        <v>37.0</v>
+        <v>697.0</v>
       </c>
       <c s="1" r="G108">
         <v>0.0</v>
@@ -4760,19 +4781,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B109">
-        <v>441964.0</v>
+        <v>368601.0</v>
       </c>
       <c t="s" s="1" r="C109">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c s="1" r="D109">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E109">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c s="1" r="F109">
-        <v>697.0</v>
+        <v>1163.0</v>
       </c>
       <c s="1" r="G109">
         <v>0.0</v>
@@ -4789,19 +4810,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B110">
-        <v>368601.0</v>
+        <v>437051.0</v>
       </c>
       <c t="s" s="1" r="C110">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c s="1" r="D110">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E110">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c s="1" r="F110">
-        <v>1163.0</v>
+        <v>713.0</v>
       </c>
       <c s="1" r="G110">
         <v>0.0</v>
@@ -4818,19 +4839,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B111">
-        <v>437051.0</v>
+        <v>459602.0</v>
       </c>
       <c t="s" s="1" r="C111">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c s="1" r="D111">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E111">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c s="1" r="F111">
-        <v>713.0</v>
+        <v>189.0</v>
       </c>
       <c s="1" r="G111">
         <v>0.0</v>
@@ -4847,19 +4868,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B112">
-        <v>459602.0</v>
+        <v>441955.0</v>
       </c>
       <c t="s" s="1" r="C112">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c s="1" r="D112">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E112">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c s="1" r="F112">
-        <v>189.0</v>
+        <v>943.0</v>
       </c>
       <c s="1" r="G112">
         <v>0.0</v>
@@ -4876,19 +4897,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B113">
-        <v>441955.0</v>
+        <v>232414.0</v>
       </c>
       <c t="s" s="1" r="C113">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c s="1" r="D113">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E113">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c s="1" r="F113">
-        <v>943.0</v>
+        <v>13367.0</v>
       </c>
       <c s="1" r="G113">
         <v>0.0</v>
@@ -4908,13 +4929,13 @@
         <v>232414.0</v>
       </c>
       <c t="s" s="1" r="C114">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c s="1" r="D114">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E114">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c s="1" r="F114">
         <v>13367.0</v>
@@ -4923,7 +4944,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="H114">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="I114">
         <v>0.0</v>
@@ -4937,13 +4958,13 @@
         <v>232414.0</v>
       </c>
       <c t="s" s="1" r="C115">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c s="1" r="D115">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E115">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c s="1" r="F115">
         <v>13367.0</v>
@@ -4952,7 +4973,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="H115">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I115">
         <v>0.0</v>
@@ -4963,19 +4984,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B116">
-        <v>232414.0</v>
+        <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C116">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c s="1" r="D116">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E116">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c s="1" r="F116">
-        <v>13367.0</v>
+        <v>19722.0</v>
       </c>
       <c s="1" r="G116">
         <v>0.0</v>
@@ -4995,13 +5016,13 @@
         <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C117">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c s="1" r="D117">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E117">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c s="1" r="F117">
         <v>19722.0</v>
@@ -5024,13 +5045,13 @@
         <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C118">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c s="1" r="D118">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E118">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c s="1" r="F118">
         <v>19722.0</v>
@@ -5053,13 +5074,13 @@
         <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C119">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="1" r="D119">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E119">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="1" r="F119">
         <v>19722.0</v>
@@ -5079,19 +5100,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B120">
-        <v>232423.0</v>
+        <v>231837.0</v>
       </c>
       <c t="s" s="1" r="C120">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c s="1" r="D120">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E120">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c s="1" r="F120">
-        <v>19722.0</v>
+        <v>1065.0</v>
       </c>
       <c s="1" r="G120">
         <v>0.0</v>
@@ -5108,19 +5129,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B121">
-        <v>231837.0</v>
+        <v>232450.0</v>
       </c>
       <c t="s" s="1" r="C121">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c s="1" r="D121">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E121">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c s="1" r="F121">
-        <v>1065.0</v>
+        <v>10797.0</v>
       </c>
       <c s="1" r="G121">
         <v>0.0</v>
@@ -5140,13 +5161,13 @@
         <v>232450.0</v>
       </c>
       <c t="s" s="1" r="C122">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c s="1" r="D122">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E122">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c s="1" r="F122">
         <v>10797.0</v>
@@ -5169,13 +5190,13 @@
         <v>232450.0</v>
       </c>
       <c t="s" s="1" r="C123">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c s="1" r="D123">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E123">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c s="1" r="F123">
         <v>10797.0</v>
@@ -5198,13 +5219,13 @@
         <v>232450.0</v>
       </c>
       <c t="s" s="1" r="C124">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c s="1" r="D124">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E124">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c s="1" r="F124">
         <v>10797.0</v>
@@ -5224,28 +5245,28 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B125">
-        <v>232450.0</v>
+        <v>475246.0</v>
       </c>
       <c t="s" s="1" r="C125">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c s="1" r="D125">
+        <v>1.0</v>
+      </c>
+      <c t="s" s="1" r="E125">
+        <v>256</v>
+      </c>
+      <c s="1" r="F125">
+        <v>111.0</v>
+      </c>
+      <c s="1" r="G125">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="H125">
         <v>4.0</v>
       </c>
-      <c t="s" s="1" r="E125">
-        <v>255</v>
-      </c>
-      <c s="1" r="F125">
-        <v>10797.0</v>
-      </c>
-      <c s="1" r="G125">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="H125">
-        <v>0.0</v>
-      </c>
       <c s="1" r="I125">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="126">
@@ -5253,28 +5274,28 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B126">
-        <v>475246.0</v>
+        <v>232557.0</v>
       </c>
       <c t="s" s="1" r="C126">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c s="1" r="D126">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E126">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c s="1" r="F126">
-        <v>111.0</v>
+        <v>64096.0</v>
       </c>
       <c s="1" r="G126">
         <v>0.0</v>
       </c>
       <c s="1" r="H126">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I126">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="127">
@@ -5282,28 +5303,28 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B127">
-        <v>232557.0</v>
+        <v>232566.0</v>
       </c>
       <c t="s" s="1" r="C127">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c s="1" r="D127">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E127">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c s="1" r="F127">
-        <v>64096.0</v>
+        <v>4860.0</v>
       </c>
       <c s="1" r="G127">
         <v>0.0</v>
       </c>
       <c s="1" r="H127">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c s="1" r="I127">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="128">
@@ -5311,28 +5332,28 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B128">
-        <v>232566.0</v>
+        <v>232575.0</v>
       </c>
       <c t="s" s="1" r="C128">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c s="1" r="D128">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E128">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c s="1" r="F128">
-        <v>4860.0</v>
+        <v>7270.0</v>
       </c>
       <c s="1" r="G128">
         <v>0.0</v>
       </c>
       <c s="1" r="H128">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I128">
-        <v>21.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="129">
@@ -5343,13 +5364,13 @@
         <v>232575.0</v>
       </c>
       <c t="s" s="1" r="C129">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c s="1" r="D129">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E129">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c s="1" r="F129">
         <v>7270.0</v>
@@ -5372,13 +5393,13 @@
         <v>232575.0</v>
       </c>
       <c t="s" s="1" r="C130">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c s="1" r="D130">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E130">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c s="1" r="F130">
         <v>7270.0</v>
@@ -5398,28 +5419,28 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B131">
-        <v>232575.0</v>
+        <v>232609.0</v>
       </c>
       <c t="s" s="1" r="C131">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c s="1" r="D131">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E131">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c s="1" r="F131">
-        <v>7270.0</v>
+        <v>2828.0</v>
       </c>
       <c s="1" r="G131">
         <v>0.0</v>
       </c>
       <c s="1" r="H131">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="I131">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="132">
@@ -5427,28 +5448,28 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B132">
-        <v>232609.0</v>
+        <v>232618.0</v>
       </c>
       <c t="s" s="1" r="C132">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c s="1" r="D132">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E132">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c s="1" r="F132">
-        <v>2828.0</v>
+        <v>190.0</v>
       </c>
       <c s="1" r="G132">
         <v>0.0</v>
       </c>
       <c s="1" r="H132">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I132">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="133">
@@ -5456,19 +5477,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B133">
-        <v>232618.0</v>
+        <v>232672.0</v>
       </c>
       <c t="s" s="1" r="C133">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c s="1" r="D133">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E133">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c s="1" r="F133">
-        <v>190.0</v>
+        <v>1783.0</v>
       </c>
       <c s="1" r="G133">
         <v>0.0</v>
@@ -5485,19 +5506,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B134">
-        <v>232672.0</v>
+        <v>232706.0</v>
       </c>
       <c t="s" s="1" r="C134">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c s="1" r="D134">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E134">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="1" r="F134">
-        <v>1783.0</v>
+        <v>3633.0</v>
       </c>
       <c s="1" r="G134">
         <v>0.0</v>
@@ -5514,19 +5535,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B135">
-        <v>232706.0</v>
+        <v>131742.0</v>
       </c>
       <c t="s" s="1" r="C135">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c s="1" r="D135">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E135">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c s="1" r="F135">
-        <v>3633.0</v>
+        <v>1868.0</v>
       </c>
       <c s="1" r="G135">
         <v>0.0</v>
@@ -5546,13 +5567,13 @@
         <v>131742.0</v>
       </c>
       <c t="s" s="1" r="C136">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c s="1" r="D136">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E136">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c s="1" r="F136">
         <v>1868.0</v>
@@ -5575,13 +5596,13 @@
         <v>131742.0</v>
       </c>
       <c t="s" s="1" r="C137">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c s="1" r="D137">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E137">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c s="1" r="F137">
         <v>1868.0</v>
@@ -5601,19 +5622,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B138">
-        <v>131742.0</v>
+        <v>233091.0</v>
       </c>
       <c t="s" s="1" r="C138">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c s="1" r="D138">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E138">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c s="1" r="F138">
-        <v>1868.0</v>
+        <v>460.0</v>
       </c>
       <c s="1" r="G138">
         <v>0.0</v>
@@ -5630,19 +5651,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B139">
-        <v>233091.0</v>
+        <v>232788.0</v>
       </c>
       <c t="s" s="1" r="C139">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c s="1" r="D139">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E139">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c s="1" r="F139">
-        <v>460.0</v>
+        <v>3219.0</v>
       </c>
       <c s="1" r="G139">
         <v>0.0</v>
@@ -5659,19 +5680,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B140">
-        <v>232788.0</v>
+        <v>232867.0</v>
       </c>
       <c t="s" s="1" r="C140">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c s="1" r="D140">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E140">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c s="1" r="F140">
-        <v>3219.0</v>
+        <v>5207.0</v>
       </c>
       <c s="1" r="G140">
         <v>0.0</v>
@@ -5688,25 +5709,25 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B141">
-        <v>232867.0</v>
+        <v>232937.0</v>
       </c>
       <c t="s" s="1" r="C141">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c s="1" r="D141">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E141">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c s="1" r="F141">
-        <v>5207.0</v>
+        <v>7091.0</v>
       </c>
       <c s="1" r="G141">
         <v>0.0</v>
       </c>
       <c s="1" r="H141">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="I141">
         <v>0.0</v>
@@ -5717,25 +5738,25 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B142">
-        <v>232937.0</v>
+        <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C142">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c s="1" r="D142">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E142">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c s="1" r="F142">
-        <v>7091.0</v>
+        <v>50044.0</v>
       </c>
       <c s="1" r="G142">
         <v>0.0</v>
       </c>
       <c s="1" r="H142">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I142">
         <v>0.0</v>
@@ -5749,13 +5770,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C143">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c s="1" r="D143">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E143">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c s="1" r="F143">
         <v>50044.0</v>
@@ -5764,10 +5785,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="H143">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c s="1" r="I143">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="144">
@@ -5778,13 +5799,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C144">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c s="1" r="D144">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E144">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c s="1" r="F144">
         <v>50044.0</v>
@@ -5793,10 +5814,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="H144">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="I144">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="145">
@@ -5807,13 +5828,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C145">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c s="1" r="D145">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E145">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c s="1" r="F145">
         <v>50044.0</v>
@@ -5822,7 +5843,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="H145">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I145">
         <v>0.0</v>
@@ -5836,13 +5857,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C146">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c s="1" r="D146">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E146">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c s="1" r="F146">
         <v>50044.0</v>
@@ -5865,13 +5886,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C147">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c s="1" r="D147">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E147">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c s="1" r="F147">
         <v>50044.0</v>
@@ -5891,28 +5912,28 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B148">
-        <v>232946.0</v>
+        <v>232982.0</v>
       </c>
       <c t="s" s="1" r="C148">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c s="1" r="D148">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E148">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c s="1" r="F148">
-        <v>50044.0</v>
+        <v>24753.0</v>
       </c>
       <c s="1" r="G148">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="H148">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c s="1" r="I148">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="149">
@@ -5920,28 +5941,28 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B149">
-        <v>232982.0</v>
+        <v>233019.0</v>
       </c>
       <c t="s" s="1" r="C149">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c s="1" r="D149">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E149">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c s="1" r="F149">
-        <v>24753.0</v>
+        <v>3251.0</v>
       </c>
       <c s="1" r="G149">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H149">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I149">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="150">
@@ -5949,19 +5970,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B150">
-        <v>233019.0</v>
+        <v>233037.0</v>
       </c>
       <c t="s" s="1" r="C150">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c s="1" r="D150">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E150">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c s="1" r="F150">
-        <v>3251.0</v>
+        <v>1661.0</v>
       </c>
       <c s="1" r="G150">
         <v>0.0</v>
@@ -5981,13 +6002,13 @@
         <v>233037.0</v>
       </c>
       <c t="s" s="1" r="C151">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c s="1" r="D151">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E151">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c s="1" r="F151">
         <v>1661.0</v>
@@ -6007,19 +6028,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B152">
-        <v>233037.0</v>
+        <v>449995.0</v>
       </c>
       <c t="s" s="1" r="C152">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c s="1" r="D152">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E152">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c s="1" r="F152">
-        <v>1661.0</v>
+        <v>232.0</v>
       </c>
       <c s="1" r="G152">
         <v>0.0</v>
@@ -6036,19 +6057,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B153">
-        <v>449995.0</v>
+        <v>233116.0</v>
       </c>
       <c t="s" s="1" r="C153">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c s="1" r="D153">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E153">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c s="1" r="F153">
-        <v>232.0</v>
+        <v>5684.0</v>
       </c>
       <c s="1" r="G153">
         <v>0.0</v>
@@ -6065,28 +6086,28 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B154">
-        <v>233116.0</v>
+        <v>233277.0</v>
       </c>
       <c t="s" s="1" r="C154">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c s="1" r="D154">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E154">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c s="1" r="F154">
-        <v>5684.0</v>
+        <v>9370.0</v>
       </c>
       <c s="1" r="G154">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="H154">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c s="1" r="I154">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="155">
@@ -6094,28 +6115,28 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B155">
-        <v>233277.0</v>
+        <v>233301.0</v>
       </c>
       <c t="s" s="1" r="C155">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c s="1" r="D155">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E155">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c s="1" r="F155">
-        <v>9370.0</v>
+        <v>576.0</v>
       </c>
       <c s="1" r="G155">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H155">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I155">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="156">
@@ -6123,28 +6144,28 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B156">
-        <v>233301.0</v>
+        <v>233295.0</v>
       </c>
       <c t="s" s="1" r="C156">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c s="1" r="D156">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E156">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c s="1" r="F156">
-        <v>576.0</v>
+        <v>1257.0</v>
       </c>
       <c s="1" r="G156">
         <v>0.0</v>
       </c>
       <c s="1" r="H156">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="I156">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="157">
@@ -6152,28 +6173,28 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B157">
-        <v>233295.0</v>
+        <v>233310.0</v>
       </c>
       <c t="s" s="1" r="C157">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c s="1" r="D157">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E157">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c s="1" r="F157">
-        <v>1257.0</v>
+        <v>3734.0</v>
       </c>
       <c s="1" r="G157">
         <v>0.0</v>
       </c>
       <c s="1" r="H157">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I157">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="158">
@@ -6184,13 +6205,13 @@
         <v>233310.0</v>
       </c>
       <c t="s" s="1" r="C158">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c s="1" r="D158">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E158">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c s="1" r="F158">
         <v>3734.0</v>
@@ -6210,25 +6231,25 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B159">
-        <v>233310.0</v>
+        <v>467605.0</v>
       </c>
       <c t="s" s="1" r="C159">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c s="1" r="D159">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E159">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c s="1" r="F159">
-        <v>3734.0</v>
+        <v>107.0</v>
       </c>
       <c s="1" r="G159">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="H159">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="I159">
         <v>0.0</v>
@@ -6239,25 +6260,25 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B160">
-        <v>467605.0</v>
+        <v>467650.0</v>
       </c>
       <c t="s" s="1" r="C160">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c s="1" r="D160">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E160">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c s="1" r="F160">
-        <v>107.0</v>
+        <v>98.0</v>
       </c>
       <c s="1" r="G160">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H160">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I160">
         <v>0.0</v>
@@ -6268,19 +6289,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B161">
-        <v>467650.0</v>
+        <v>231651.0</v>
       </c>
       <c t="s" s="1" r="C161">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c s="1" r="D161">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E161">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c s="1" r="F161">
-        <v>98.0</v>
+        <v>5568.0</v>
       </c>
       <c s="1" r="G161">
         <v>0.0</v>
@@ -6297,19 +6318,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B162">
-        <v>231651.0</v>
+        <v>233338.0</v>
       </c>
       <c t="s" s="1" r="C162">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c s="1" r="D162">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E162">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c s="1" r="F162">
-        <v>5568.0</v>
+        <v>1629.0</v>
       </c>
       <c s="1" r="G162">
         <v>0.0</v>
@@ -6326,19 +6347,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B163">
-        <v>233338.0</v>
+        <v>437769.0</v>
       </c>
       <c t="s" s="1" r="C163">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c s="1" r="D163">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E163">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c s="1" r="F163">
-        <v>1629.0</v>
+        <v>392.0</v>
       </c>
       <c s="1" r="G163">
         <v>0.0</v>
@@ -6355,19 +6376,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B164">
-        <v>437769.0</v>
+        <v>233408.0</v>
       </c>
       <c t="s" s="1" r="C164">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c s="1" r="D164">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E164">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c s="1" r="F164">
-        <v>392.0</v>
+        <v>305.0</v>
       </c>
       <c s="1" r="G164">
         <v>0.0</v>
@@ -6384,19 +6405,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B165">
-        <v>233408.0</v>
+        <v>233426.0</v>
       </c>
       <c t="s" s="1" r="C165">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c s="1" r="D165">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E165">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c s="1" r="F165">
-        <v>305.0</v>
+        <v>2057.0</v>
       </c>
       <c s="1" r="G165">
         <v>0.0</v>
@@ -6413,25 +6434,25 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B166">
-        <v>233426.0</v>
+        <v>441876.0</v>
       </c>
       <c t="s" s="1" r="C166">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c s="1" r="D166">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E166">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c s="1" r="F166">
-        <v>2057.0</v>
+        <v>230.0</v>
       </c>
       <c s="1" r="G166">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="H166">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="I166">
         <v>0.0</v>
@@ -6442,25 +6463,25 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B167">
-        <v>441876.0</v>
+        <v>233499.0</v>
       </c>
       <c t="s" s="1" r="C167">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c s="1" r="D167">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E167">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c s="1" r="F167">
-        <v>230.0</v>
+        <v>410.0</v>
       </c>
       <c s="1" r="G167">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H167">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I167">
         <v>0.0</v>
@@ -6471,19 +6492,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B168">
-        <v>233499.0</v>
+        <v>234216.0</v>
       </c>
       <c t="s" s="1" r="C168">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c s="1" r="D168">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E168">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c s="1" r="F168">
-        <v>410.0</v>
+        <v>829.0</v>
       </c>
       <c s="1" r="G168">
         <v>0.0</v>
@@ -6500,19 +6521,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B169">
-        <v>234216.0</v>
+        <v>232885.0</v>
       </c>
       <c t="s" s="1" r="C169">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c s="1" r="D169">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E169">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c s="1" r="F169">
-        <v>829.0</v>
+        <v>337.0</v>
       </c>
       <c s="1" r="G169">
         <v>0.0</v>
@@ -6529,28 +6550,28 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B170">
-        <v>232885.0</v>
+        <v>233541.0</v>
       </c>
       <c t="s" s="1" r="C170">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c s="1" r="D170">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E170">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c s="1" r="F170">
-        <v>337.0</v>
+        <v>4052.0</v>
       </c>
       <c s="1" r="G170">
         <v>0.0</v>
       </c>
       <c s="1" r="H170">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c s="1" r="I170">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="171">
@@ -6558,28 +6579,28 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B171">
-        <v>233541.0</v>
+        <v>261931.0</v>
       </c>
       <c t="s" s="1" r="C171">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c s="1" r="D171">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E171">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c s="1" r="F171">
-        <v>4052.0</v>
+        <v>264.0</v>
       </c>
       <c s="1" r="G171">
         <v>0.0</v>
       </c>
       <c s="1" r="H171">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I171">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="172">
@@ -6587,19 +6608,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B172">
-        <v>261931.0</v>
+        <v>459259.0</v>
       </c>
       <c t="s" s="1" r="C172">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c s="1" r="D172">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E172">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c s="1" r="F172">
-        <v>264.0</v>
+        <v>559.0</v>
       </c>
       <c s="1" r="G172">
         <v>0.0</v>
@@ -6616,19 +6637,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B173">
-        <v>459259.0</v>
+        <v>459268.0</v>
       </c>
       <c t="s" s="1" r="C173">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c s="1" r="D173">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E173">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c s="1" r="F173">
-        <v>559.0</v>
+        <v>437.0</v>
       </c>
       <c s="1" r="G173">
         <v>0.0</v>
@@ -6645,19 +6666,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B174">
-        <v>459268.0</v>
+        <v>451608.0</v>
       </c>
       <c t="s" s="1" r="C174">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c s="1" r="D174">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E174">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c s="1" r="F174">
-        <v>437.0</v>
+        <v>71.0</v>
       </c>
       <c s="1" r="G174">
         <v>0.0</v>
@@ -6674,25 +6695,25 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B175">
-        <v>451608.0</v>
+        <v>233611.0</v>
       </c>
       <c t="s" s="1" r="C175">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c s="1" r="D175">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E175">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c s="1" r="F175">
-        <v>71.0</v>
+        <v>803.0</v>
       </c>
       <c s="1" r="G175">
         <v>0.0</v>
       </c>
       <c s="1" r="H175">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="I175">
         <v>0.0</v>
@@ -6703,25 +6724,25 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B176">
-        <v>233611.0</v>
+        <v>233082.0</v>
       </c>
       <c t="s" s="1" r="C176">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c s="1" r="D176">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E176">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c s="1" r="F176">
-        <v>803.0</v>
+        <v>123.0</v>
       </c>
       <c s="1" r="G176">
         <v>0.0</v>
       </c>
       <c s="1" r="H176">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c s="1" r="I176">
         <v>0.0</v>
@@ -6732,25 +6753,25 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B177">
-        <v>233082.0</v>
+        <v>233639.0</v>
       </c>
       <c t="s" s="1" r="C177">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c s="1" r="D177">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E177">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c s="1" r="F177">
-        <v>123.0</v>
+        <v>6461.0</v>
       </c>
       <c s="1" r="G177">
         <v>0.0</v>
       </c>
       <c s="1" r="H177">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I177">
         <v>0.0</v>
@@ -6761,19 +6782,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B178">
-        <v>233639.0</v>
+        <v>233648.0</v>
       </c>
       <c t="s" s="1" r="C178">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c s="1" r="D178">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E178">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c s="1" r="F178">
-        <v>6461.0</v>
+        <v>3233.0</v>
       </c>
       <c s="1" r="G178">
         <v>0.0</v>
@@ -6790,19 +6811,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B179">
-        <v>233648.0</v>
+        <v>233657.0</v>
       </c>
       <c t="s" s="1" r="C179">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c s="1" r="D179">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E179">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c s="1" r="F179">
-        <v>3233.0</v>
+        <v>69.0</v>
       </c>
       <c s="1" r="G179">
         <v>0.0</v>
@@ -6819,19 +6840,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B180">
-        <v>233657.0</v>
+        <v>233666.0</v>
       </c>
       <c t="s" s="1" r="C180">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c s="1" r="D180">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E180">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c s="1" r="F180">
-        <v>69.0</v>
+        <v>59.0</v>
       </c>
       <c s="1" r="G180">
         <v>0.0</v>
@@ -6848,19 +6869,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B181">
-        <v>233666.0</v>
+        <v>438498.0</v>
       </c>
       <c t="s" s="1" r="C181">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c s="1" r="D181">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E181">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c s="1" r="F181">
-        <v>59.0</v>
+        <v>1823.0</v>
       </c>
       <c s="1" r="G181">
         <v>0.0</v>
@@ -6877,19 +6898,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B182">
-        <v>438498.0</v>
+        <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C182">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c s="1" r="D182">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E182">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c s="1" r="F182">
-        <v>1823.0</v>
+        <v>11202.0</v>
       </c>
       <c s="1" r="G182">
         <v>0.0</v>
@@ -6909,13 +6930,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C183">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c s="1" r="D183">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E183">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c s="1" r="F183">
         <v>11202.0</v>
@@ -6938,13 +6959,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C184">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c s="1" r="D184">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E184">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c s="1" r="F184">
         <v>11202.0</v>
@@ -6967,13 +6988,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C185">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c s="1" r="D185">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E185">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c s="1" r="F185">
         <v>11202.0</v>
@@ -6996,13 +7017,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C186">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c s="1" r="D186">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E186">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c s="1" r="F186">
         <v>11202.0</v>
@@ -7025,13 +7046,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C187">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c s="1" r="D187">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E187">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c s="1" r="F187">
         <v>11202.0</v>
@@ -7054,13 +7075,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C188">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c s="1" r="D188">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E188">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c s="1" r="F188">
         <v>11202.0</v>
@@ -7083,13 +7104,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C189">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c s="1" r="D189">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E189">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c s="1" r="F189">
         <v>11202.0</v>
@@ -7112,13 +7133,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C190">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c s="1" r="D190">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E190">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c s="1" r="F190">
         <v>11202.0</v>
@@ -7141,13 +7162,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C191">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c s="1" r="D191">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c t="s" s="1" r="E191">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c s="1" r="F191">
         <v>11202.0</v>
@@ -7170,13 +7191,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C192">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c s="1" r="D192">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c t="s" s="1" r="E192">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c s="1" r="F192">
         <v>11202.0</v>
@@ -7196,19 +7217,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B193">
-        <v>233684.0</v>
+        <v>231721.0</v>
       </c>
       <c t="s" s="1" r="C193">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c s="1" r="D193">
-        <v>11.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E193">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c s="1" r="F193">
-        <v>11202.0</v>
+        <v>59.0</v>
       </c>
       <c s="1" r="G193">
         <v>0.0</v>
@@ -7225,25 +7246,25 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B194">
-        <v>231721.0</v>
+        <v>232593.0</v>
       </c>
       <c t="s" s="1" r="C194">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c s="1" r="D194">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E194">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c s="1" r="F194">
-        <v>59.0</v>
+        <v>14.0</v>
       </c>
       <c s="1" r="G194">
         <v>0.0</v>
       </c>
       <c s="1" r="H194">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="I194">
         <v>0.0</v>
@@ -7254,19 +7275,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B195">
-        <v>232593.0</v>
+        <v>233718.0</v>
       </c>
       <c t="s" s="1" r="C195">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c s="1" r="D195">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E195">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c s="1" r="F195">
-        <v>14.0</v>
+        <v>760.0</v>
       </c>
       <c s="1" r="G195">
         <v>0.0</v>
@@ -7283,25 +7304,25 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B196">
-        <v>233718.0</v>
+        <v>233286.0</v>
       </c>
       <c t="s" s="1" r="C196">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c s="1" r="D196">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E196">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c s="1" r="F196">
-        <v>760.0</v>
+        <v>54.0</v>
       </c>
       <c s="1" r="G196">
         <v>0.0</v>
       </c>
       <c s="1" r="H196">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I196">
         <v>0.0</v>
@@ -7312,25 +7333,25 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B197">
-        <v>233286.0</v>
+        <v>458496.0</v>
       </c>
       <c t="s" s="1" r="C197">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c s="1" r="D197">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E197">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c s="1" r="F197">
-        <v>54.0</v>
+        <v>427.0</v>
       </c>
       <c s="1" r="G197">
         <v>0.0</v>
       </c>
       <c s="1" r="H197">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="I197">
         <v>0.0</v>
@@ -7341,25 +7362,25 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B198">
-        <v>458496.0</v>
+        <v>440341.0</v>
       </c>
       <c t="s" s="1" r="C198">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c s="1" r="D198">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E198">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c s="1" r="F198">
-        <v>427.0</v>
+        <v>2094.0</v>
       </c>
       <c s="1" r="G198">
         <v>0.0</v>
       </c>
       <c s="1" r="H198">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I198">
         <v>0.0</v>
@@ -7370,19 +7391,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B199">
-        <v>440341.0</v>
+        <v>456010.0</v>
       </c>
       <c t="s" s="1" r="C199">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c s="1" r="D199">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E199">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c s="1" r="F199">
-        <v>2094.0</v>
+        <v>245.0</v>
       </c>
       <c s="1" r="G199">
         <v>0.0</v>
@@ -7399,19 +7420,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B200">
-        <v>456010.0</v>
+        <v>233897.0</v>
       </c>
       <c t="s" s="1" r="C200">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c s="1" r="D200">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E200">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c s="1" r="F200">
-        <v>245.0</v>
+        <v>2067.0</v>
       </c>
       <c s="1" r="G200">
         <v>0.0</v>
@@ -7420,7 +7441,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I200">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="201">
@@ -7428,19 +7449,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B201">
-        <v>233897.0</v>
+        <v>233754.0</v>
       </c>
       <c t="s" s="1" r="C201">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c s="1" r="D201">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E201">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c s="1" r="F201">
-        <v>2067.0</v>
+        <v>10999.0</v>
       </c>
       <c s="1" r="G201">
         <v>0.0</v>
@@ -7449,7 +7470,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I201">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="202">
@@ -7457,28 +7478,28 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B202">
-        <v>233754.0</v>
+        <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C202">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c s="1" r="D202">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E202">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c s="1" r="F202">
-        <v>10999.0</v>
+        <v>32101.0</v>
       </c>
       <c s="1" r="G202">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="H202">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c s="1" r="I202">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="203">
@@ -7489,25 +7510,25 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C203">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c s="1" r="D203">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E203">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c s="1" r="F203">
         <v>32101.0</v>
       </c>
       <c s="1" r="G203">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H203">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I203">
-        <v>17.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="204">
@@ -7518,13 +7539,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C204">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c s="1" r="D204">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E204">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c s="1" r="F204">
         <v>32101.0</v>
@@ -7547,13 +7568,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C205">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c s="1" r="D205">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E205">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c s="1" r="F205">
         <v>32101.0</v>
@@ -7576,13 +7597,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C206">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c s="1" r="D206">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E206">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c s="1" r="F206">
         <v>32101.0</v>
@@ -7591,7 +7612,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="H206">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c s="1" r="I206">
         <v>0.0</v>
@@ -7605,13 +7626,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C207">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c s="1" r="D207">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E207">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c s="1" r="F207">
         <v>32101.0</v>
@@ -7620,7 +7641,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="H207">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I207">
         <v>0.0</v>
@@ -7634,22 +7655,22 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C208">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c s="1" r="D208">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E208">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c s="1" r="F208">
         <v>32101.0</v>
       </c>
       <c s="1" r="G208">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="H208">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="I208">
         <v>0.0</v>
@@ -7660,25 +7681,25 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B209">
-        <v>233772.0</v>
+        <v>232919.0</v>
       </c>
       <c t="s" s="1" r="C209">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c s="1" r="D209">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E209">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c s="1" r="F209">
-        <v>32101.0</v>
+        <v>230.0</v>
       </c>
       <c s="1" r="G209">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H209">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I209">
         <v>0.0</v>
@@ -7689,19 +7710,16 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B210">
-        <v>232919.0</v>
+        <v>476568.0</v>
       </c>
       <c t="s" s="1" r="C210">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c s="1" r="D210">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E210">
-        <v>425</v>
-      </c>
-      <c s="1" r="F210">
-        <v>230.0</v>
+        <v>426</v>
       </c>
       <c s="1" r="G210">
         <v>0.0</v>
@@ -7718,16 +7736,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B211">
-        <v>476568.0</v>
+        <v>233842.0</v>
       </c>
       <c t="s" s="1" r="C211">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c s="1" r="D211">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E211">
-        <v>427</v>
+        <v>428</v>
+      </c>
+      <c s="1" r="F211">
+        <v>221.0</v>
       </c>
       <c s="1" r="G211">
         <v>0.0</v>
@@ -7747,13 +7768,13 @@
         <v>233842.0</v>
       </c>
       <c t="s" s="1" r="C212">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c s="1" r="D212">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E212">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c s="1" r="F212">
         <v>221.0</v>
@@ -7773,25 +7794,25 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B213">
-        <v>233842.0</v>
+        <v>232681.0</v>
       </c>
       <c t="s" s="1" r="C213">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c s="1" r="D213">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E213">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c s="1" r="F213">
-        <v>221.0</v>
+        <v>5170.0</v>
       </c>
       <c s="1" r="G213">
         <v>0.0</v>
       </c>
       <c s="1" r="H213">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="I213">
         <v>0.0</v>
@@ -7805,13 +7826,13 @@
         <v>232681.0</v>
       </c>
       <c t="s" s="1" r="C214">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c s="1" r="D214">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E214">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c s="1" r="F214">
         <v>5170.0</v>
@@ -7820,7 +7841,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="H214">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I214">
         <v>0.0</v>
@@ -7831,19 +7852,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B215">
-        <v>232681.0</v>
+        <v>442189.0</v>
       </c>
       <c t="s" s="1" r="C215">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c s="1" r="D215">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E215">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c s="1" r="F215">
-        <v>5170.0</v>
+        <v>889.0</v>
       </c>
       <c s="1" r="G215">
         <v>0.0</v>
@@ -7860,19 +7881,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B216">
-        <v>442189.0</v>
+        <v>446756.0</v>
       </c>
       <c t="s" s="1" r="C216">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c s="1" r="D216">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E216">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c s="1" r="F216">
-        <v>889.0</v>
+        <v>592.0</v>
       </c>
       <c s="1" r="G216">
         <v>0.0</v>
@@ -7889,19 +7910,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B217">
-        <v>446756.0</v>
+        <v>233374.0</v>
       </c>
       <c t="s" s="1" r="C217">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c s="1" r="D217">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E217">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c s="1" r="F217">
-        <v>592.0</v>
+        <v>4348.0</v>
       </c>
       <c s="1" r="G217">
         <v>0.0</v>
@@ -7918,19 +7939,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B218">
-        <v>233374.0</v>
+        <v>442639.0</v>
       </c>
       <c t="s" s="1" r="C218">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c s="1" r="D218">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E218">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c s="1" r="F218">
-        <v>4348.0</v>
+        <v>31.0</v>
       </c>
       <c s="1" r="G218">
         <v>0.0</v>
@@ -7947,28 +7968,28 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B219">
-        <v>442639.0</v>
+        <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C219">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c s="1" r="D219">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E219">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c s="1" r="F219">
-        <v>31.0</v>
+        <v>24297.0</v>
       </c>
       <c s="1" r="G219">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="H219">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c s="1" r="I219">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="220">
@@ -7979,25 +8000,25 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C220">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c s="1" r="D220">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E220">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c s="1" r="F220">
         <v>24297.0</v>
       </c>
       <c s="1" r="G220">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H220">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I220">
-        <v>16.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="221">
@@ -8008,13 +8029,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C221">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c s="1" r="D221">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E221">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c s="1" r="F221">
         <v>24297.0</v>
@@ -8037,13 +8058,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C222">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c s="1" r="D222">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E222">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c s="1" r="F222">
         <v>24297.0</v>
@@ -8066,13 +8087,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C223">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c s="1" r="D223">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E223">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c s="1" r="F223">
         <v>24297.0</v>
@@ -8095,13 +8116,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C224">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c s="1" r="D224">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E224">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c s="1" r="F224">
         <v>24297.0</v>
@@ -8121,19 +8142,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B225">
-        <v>234076.0</v>
+        <v>377485.0</v>
       </c>
       <c t="s" s="1" r="C225">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c s="1" r="D225">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E225">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c s="1" r="F225">
-        <v>24297.0</v>
+        <v>63.0</v>
       </c>
       <c s="1" r="G225">
         <v>0.0</v>
@@ -8150,28 +8171,28 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B226">
-        <v>377485.0</v>
+        <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C226">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c s="1" r="D226">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E226">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c s="1" r="F226">
-        <v>63.0</v>
+        <v>31627.0</v>
       </c>
       <c s="1" r="G226">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c s="1" r="H226">
-        <v>0.0</v>
+        <v>202.0</v>
       </c>
       <c s="1" r="I226">
-        <v>0.0</v>
+        <v>319.0</v>
       </c>
     </row>
     <row r="227">
@@ -8182,25 +8203,25 @@
         <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C227">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c s="1" r="D227">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E227">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c s="1" r="F227">
         <v>31627.0</v>
       </c>
       <c s="1" r="G227">
-        <v>34.0</v>
+        <v>11.0</v>
       </c>
       <c s="1" r="H227">
-        <v>202.0</v>
+        <v>28.0</v>
       </c>
       <c s="1" r="I227">
-        <v>319.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="228">
@@ -8211,25 +8232,25 @@
         <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C228">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c s="1" r="D228">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E228">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c s="1" r="F228">
         <v>31627.0</v>
       </c>
       <c s="1" r="G228">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H228">
-        <v>28.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I228">
-        <v>16.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="229">
@@ -8237,19 +8258,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B229">
-        <v>234030.0</v>
+        <v>233903.0</v>
       </c>
       <c t="s" s="1" r="C229">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c s="1" r="D229">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E229">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c s="1" r="F229">
-        <v>31627.0</v>
+        <v>2823.0</v>
       </c>
       <c s="1" r="G229">
         <v>0.0</v>
@@ -8266,19 +8287,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B230">
-        <v>233903.0</v>
+        <v>233912.0</v>
       </c>
       <c t="s" s="1" r="C230">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c s="1" r="D230">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E230">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c s="1" r="F230">
-        <v>2823.0</v>
+        <v>558.0</v>
       </c>
       <c s="1" r="G230">
         <v>0.0</v>
@@ -8295,28 +8316,28 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B231">
-        <v>233912.0</v>
+        <v>234085.0</v>
       </c>
       <c t="s" s="1" r="C231">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c s="1" r="D231">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E231">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c s="1" r="F231">
-        <v>558.0</v>
+        <v>1605.0</v>
       </c>
       <c s="1" r="G231">
         <v>0.0</v>
       </c>
       <c s="1" r="H231">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="I231">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="232">
@@ -8324,28 +8345,28 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B232">
-        <v>234085.0</v>
+        <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C232">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c s="1" r="D232">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E232">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c s="1" r="F232">
-        <v>1605.0</v>
+        <v>30936.0</v>
       </c>
       <c s="1" r="G232">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="H232">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c s="1" r="I232">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="233">
@@ -8356,25 +8377,25 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C233">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c s="1" r="D233">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E233">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c s="1" r="F233">
         <v>30936.0</v>
       </c>
       <c s="1" r="G233">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H233">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I233">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="234">
@@ -8385,13 +8406,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C234">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c s="1" r="D234">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E234">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c s="1" r="F234">
         <v>30936.0</v>
@@ -8414,13 +8435,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C235">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c s="1" r="D235">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E235">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c s="1" r="F235">
         <v>30936.0</v>
@@ -8443,22 +8464,22 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C236">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c s="1" r="D236">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E236">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c s="1" r="F236">
         <v>30936.0</v>
       </c>
       <c s="1" r="G236">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="H236">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="I236">
         <v>0.0</v>
@@ -8472,22 +8493,22 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C237">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c s="1" r="D237">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E237">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c s="1" r="F237">
         <v>30936.0</v>
       </c>
       <c s="1" r="G237">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H237">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I237">
         <v>0.0</v>
@@ -8501,13 +8522,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C238">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c s="1" r="D238">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E238">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c s="1" r="F238">
         <v>30936.0</v>
@@ -8530,13 +8551,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C239">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c s="1" r="D239">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E239">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c s="1" r="F239">
         <v>30936.0</v>
@@ -8559,13 +8580,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C240">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c s="1" r="D240">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c t="s" s="1" r="E240">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c s="1" r="F240">
         <v>30936.0</v>
@@ -8588,13 +8609,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C241">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c s="1" r="D241">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c t="s" s="1" r="E241">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c s="1" r="F241">
         <v>30936.0</v>
@@ -8617,13 +8638,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C242">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c s="1" r="D242">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c t="s" s="1" r="E242">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c s="1" r="F242">
         <v>30936.0</v>
@@ -8646,13 +8667,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C243">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c s="1" r="D243">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c t="s" s="1" r="E243">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c s="1" r="F243">
         <v>30936.0</v>
@@ -8672,19 +8693,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B244">
-        <v>233921.0</v>
+        <v>234119.0</v>
       </c>
       <c t="s" s="1" r="C244">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c s="1" r="D244">
-        <v>13.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E244">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c s="1" r="F244">
-        <v>30936.0</v>
+        <v>126.0</v>
       </c>
       <c s="1" r="G244">
         <v>0.0</v>
@@ -8701,19 +8722,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B245">
-        <v>234119.0</v>
+        <v>430254.0</v>
       </c>
       <c t="s" s="1" r="C245">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c s="1" r="D245">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E245">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c s="1" r="F245">
-        <v>126.0</v>
+        <v>59.0</v>
       </c>
       <c s="1" r="G245">
         <v>0.0</v>
@@ -8730,19 +8751,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B246">
-        <v>430254.0</v>
+        <v>234155.0</v>
       </c>
       <c t="s" s="1" r="C246">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c s="1" r="D246">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E246">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c s="1" r="F246">
-        <v>59.0</v>
+        <v>5890.0</v>
       </c>
       <c s="1" r="G246">
         <v>0.0</v>
@@ -8759,19 +8780,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B247">
-        <v>234155.0</v>
+        <v>234164.0</v>
       </c>
       <c t="s" s="1" r="C247">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c s="1" r="D247">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E247">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c s="1" r="F247">
-        <v>5890.0</v>
+        <v>1678.0</v>
       </c>
       <c s="1" r="G247">
         <v>0.0</v>
@@ -8788,19 +8809,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B248">
-        <v>234164.0</v>
+        <v>234137.0</v>
       </c>
       <c t="s" s="1" r="C248">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c s="1" r="D248">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E248">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c s="1" r="F248">
-        <v>1678.0</v>
+        <v>597.0</v>
       </c>
       <c s="1" r="G248">
         <v>0.0</v>
@@ -8817,19 +8838,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B249">
-        <v>234137.0</v>
+        <v>234173.0</v>
       </c>
       <c t="s" s="1" r="C249">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c s="1" r="D249">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E249">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c s="1" r="F249">
-        <v>597.0</v>
+        <v>1404.0</v>
       </c>
       <c s="1" r="G249">
         <v>0.0</v>
@@ -8846,19 +8867,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B250">
-        <v>234173.0</v>
+        <v>233949.0</v>
       </c>
       <c t="s" s="1" r="C250">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c s="1" r="D250">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E250">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c s="1" r="F250">
-        <v>1404.0</v>
+        <v>8557.0</v>
       </c>
       <c s="1" r="G250">
         <v>0.0</v>
@@ -8875,25 +8896,25 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B251">
-        <v>233949.0</v>
+        <v>234191.0</v>
       </c>
       <c t="s" s="1" r="C251">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c s="1" r="D251">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E251">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c s="1" r="F251">
-        <v>8557.0</v>
+        <v>123.0</v>
       </c>
       <c s="1" r="G251">
         <v>0.0</v>
       </c>
       <c s="1" r="H251">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="I251">
         <v>0.0</v>
@@ -8904,25 +8925,25 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B252">
-        <v>234191.0</v>
+        <v>445683.0</v>
       </c>
       <c t="s" s="1" r="C252">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c s="1" r="D252">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E252">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c s="1" r="F252">
-        <v>123.0</v>
+        <v>24.0</v>
       </c>
       <c s="1" r="G252">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="H252">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="I252">
         <v>0.0</v>
@@ -8933,28 +8954,28 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B253">
-        <v>445683.0</v>
+        <v>234207.0</v>
       </c>
       <c t="s" s="1" r="C253">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c s="1" r="D253">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E253">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c s="1" r="F253">
-        <v>24.0</v>
+        <v>2193.0</v>
       </c>
       <c s="1" r="G253">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H253">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I253">
-        <v>0.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="254">
@@ -8962,19 +8983,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B254">
-        <v>234207.0</v>
+        <v>234225.0</v>
       </c>
       <c t="s" s="1" r="C254">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c s="1" r="D254">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E254">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c s="1" r="F254">
-        <v>2193.0</v>
+        <v>88.0</v>
       </c>
       <c s="1" r="G254">
         <v>0.0</v>
@@ -8983,7 +9004,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I254">
-        <v>83.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="255">
@@ -8991,19 +9012,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B255">
-        <v>234225.0</v>
+        <v>448628.0</v>
       </c>
       <c t="s" s="1" r="C255">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c s="1" r="D255">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E255">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c s="1" r="F255">
-        <v>88.0</v>
+        <v>442.0</v>
       </c>
       <c s="1" r="G255">
         <v>0.0</v>
@@ -9020,19 +9041,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B256">
-        <v>448628.0</v>
+        <v>447069.0</v>
       </c>
       <c t="s" s="1" r="C256">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c s="1" r="D256">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E256">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c s="1" r="F256">
-        <v>442.0</v>
+        <v>469.0</v>
       </c>
       <c s="1" r="G256">
         <v>0.0</v>
@@ -9041,7 +9062,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I256">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="257">
@@ -9049,19 +9070,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B257">
-        <v>447069.0</v>
+        <v>234359.0</v>
       </c>
       <c t="s" s="1" r="C257">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c s="1" r="D257">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E257">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c s="1" r="F257">
-        <v>469.0</v>
+        <v>128.0</v>
       </c>
       <c s="1" r="G257">
         <v>0.0</v>
@@ -9070,7 +9091,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I257">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="258">
@@ -9078,19 +9099,19 @@
         <v>2011.0</v>
       </c>
       <c s="1" r="B258">
-        <v>234359.0</v>
+        <v>234377.0</v>
       </c>
       <c t="s" s="1" r="C258">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c s="1" r="D258">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E258">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c s="1" r="F258">
-        <v>128.0</v>
+        <v>3792.0</v>
       </c>
       <c s="1" r="G258">
         <v>0.0</v>
@@ -9099,35 +9120,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I258">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="259">
-      <c s="1" r="A259">
-        <v>2011.0</v>
-      </c>
-      <c s="1" r="B259">
-        <v>234377.0</v>
-      </c>
-      <c t="s" s="1" r="C259">
-        <v>522</v>
-      </c>
-      <c s="1" r="D259">
-        <v>1.0</v>
-      </c>
-      <c t="s" s="1" r="E259">
-        <v>523</v>
-      </c>
-      <c s="1" r="F259">
-        <v>3792.0</v>
-      </c>
-      <c s="1" r="G259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="H259">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="I259">
         <v>0.0</v>
       </c>
     </row>
